--- a/others/Investment/THS/AutoTrade/data/策略对比.xlsx
+++ b/others/Investment/THS/AutoTrade/data/策略对比.xlsx
@@ -7,10 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="win_rate_analyse" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="risk_analyse" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="profit_analyse" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sharpe_analyse" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,190 +436,412 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>策略胜率%</t>
+          <t>策略ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>策略名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>描述</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>说明</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>周期</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>风格</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>子风格</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>选股</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>规则</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>总利润率</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>年化收益</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>最大回撤-20%</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>波动率</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>胜率</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>夏普比率-超额收益</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>持仓所属行业集中度</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>选股结果</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>52.85</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>最大回撤%</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>策略回测%</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>沪深300回撤%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>策略最长回撤天数</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>42.06</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>155680</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>趋势投资</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>短线</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>技术面</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>技术面</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>AIGC概念，近三日资金净流入大于5000万，非ST，非停牌</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>通过GPT叠加一定选股逻辑，选取1-10支股票</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2903.62%</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>140.78%</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>65.80%</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>58.70%</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>39.25%</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>2.347363988626828</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>9.89%</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>[{'stkName': '赛意信息', 'rise': None}, {'stkName': '致远互联', 'rise': None}]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="n">
-        <v>30.36</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>137789</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>高现金高毛利战法</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>价值投资</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>中线</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>基本面</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>基本面</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>非st，非科创板，非退市，非停牌，流通市值大于5亿元，非同花顺，近1个月有&gt;=1次的减持公告取反，行业，货币资金减去负债总计＞1，流通股数＜5亿，年收益增长率＞15%，PE，流通市值＜100亿，毛利率＞30%，净资产收益率roe(加权公布值)大于等于10%，非科创板</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>从策略选出的股票池中，选取1-10支股票</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>459.88%</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>31.68%</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>45.42%</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>36.75%</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>49.10%</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>0.7803266900016044</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>6.85%</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>[{'stkName': '国光股份', 'rise': None}, {'stkName': '凌霄泵业', 'rise': None}]</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
-        <v>42.06</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>138006</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>连续五年优质股战法</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>成长股投资</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>长线</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>基本面</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>基本面</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>非st，非科创板，非退市，非停牌，流通市值大于5亿元，非同花顺，近1个月有&gt;=1次的减持公告取反，近5年营业收入增长率大于10%，近5年净利润增长率大于10%</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>从策略选出的股票池中，选取1-10支股票</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>423.09%</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>30.36%</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>32.85%</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>27.62%</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>49.52%</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>0.9905908571437536</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>14.29%</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>[{'stkName': '大连重工', 'rise': None}, {'stkName': '北方华创', 'rise': None}]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>155273</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>国资云概念战法</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>策略%</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基准%(沪深300)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>年化%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>超额%</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>186.71</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="n">
-        <v>-25.52</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
-        <v>30.68</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>212.22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>策略夏普比率</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.9399999999999999</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>趋势股投资</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>中短线</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>消息面</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>消息面</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>国资云概念，pe大于40，非ST，非停牌</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>从策略选出的股票池中，选取1-10支股票</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>151.42%</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>37.31%</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>46.65%</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>40.48%</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>38.85%</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>0.8475141303656699</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>63.64%</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>[{'stkName': '同方股份', 'rise': None}, {'stkName': '广聚能源', 'rise': None}]</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/others/Investment/THS/AutoTrade/data/策略对比.xlsx
+++ b/others/Investment/THS/AutoTrade/data/策略对比.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -564,12 +564,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2903.62%</t>
+          <t>2565.14%</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>140.78%</t>
+          <t>127.96%</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -579,25 +579,25 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>58.70%</t>
+          <t>54.93%</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>39.25%</t>
+          <t>39.23%</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>2.347363988626828</v>
+        <v>2.275011193635714</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>9.89%</t>
+          <t>8.33%</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[{'stkName': '赛意信息', 'rise': None}, {'stkName': '致远互联', 'rise': None}]</t>
+          <t>[{'stkName': '熵基科技', 'rise': None}, {'stkName': '山水比德', 'rise': None}]</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>459.88%</t>
+          <t>449.31%</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>31.68%</t>
+          <t>30.65%</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -660,25 +660,25 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>36.75%</t>
+          <t>37.19%</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>49.10%</t>
+          <t>49.18%</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>0.7803266900016044</v>
+        <v>0.7433573582087898</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>6.85%</t>
+          <t>6.67%</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[{'stkName': '国光股份', 'rise': None}, {'stkName': '凌霄泵业', 'rise': None}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -726,12 +726,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>423.09%</t>
+          <t>392.08%</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>30.36%</t>
+          <t>28.51%</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -741,25 +741,25 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>27.62%</t>
+          <t>27.91%</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>49.52%</t>
+          <t>49.46%</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>0.9905908571437536</v>
+        <v>0.9142420269154229</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>12.50%</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[{'stkName': '大连重工', 'rise': None}, {'stkName': '北方华创', 'rise': None}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -807,12 +807,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>151.42%</t>
+          <t>125.49%</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>37.31%</t>
+          <t>30.90%</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -822,25 +822,25 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>40.48%</t>
+          <t>41.05%</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>38.85%</t>
+          <t>38.62%</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>0.8475141303656699</v>
+        <v>0.6796006145214216</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>63.64%</t>
+          <t>53.85%</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[{'stkName': '同方股份', 'rise': None}, {'stkName': '广聚能源', 'rise': None}]</t>
+          <t>[{'stkName': '广聚能源', 'rise': None}, {'stkName': '歌华有线', 'rise': None}]</t>
         </is>
       </c>
     </row>
